--- a/public_html/files/example.xlsx
+++ b/public_html/files/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\rein.bauwens\site OLPC\website\source\public_html\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\rein.bauwens\siteOLPC\website\source\public_html\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -360,6 +360,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,30 +378,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,17 +399,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,14 +823,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
@@ -842,12 +842,12 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5"/>
@@ -869,32 +869,32 @@
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H4"/>
       <c r="J4" s="3"/>
       <c r="K4"/>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37" t="s">
+      <c r="N4" s="34"/>
+      <c r="O4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38" t="s">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -915,7 +915,7 @@
       <c r="G5" s="11"/>
       <c r="H5"/>
       <c r="K5"/>
-      <c r="L5" s="37"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="9" t="s">
         <v>8</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="P5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1003,40 +1003,40 @@
     <row r="10" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10"/>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="35" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10"/>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37" t="s">
+      <c r="N10" s="34"/>
+      <c r="O10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="38" t="s">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11"/>
-      <c r="C11" s="37"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1049,9 +1049,9 @@
       <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="35"/>
       <c r="K11"/>
-      <c r="L11" s="37"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="P11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="38"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -1145,40 +1145,40 @@
     <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16"/>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16"/>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37" t="s">
+      <c r="N16" s="34"/>
+      <c r="O16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38" t="s">
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="9" t="s">
         <v>8</v>
       </c>
@@ -1191,9 +1191,9 @@
       <c r="G17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="35"/>
       <c r="K17"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="9" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="P17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q17" s="38"/>
+      <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -1299,52 +1299,52 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="K22"/>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="37"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23"/>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37" t="s">
+      <c r="N23" s="34"/>
+      <c r="O23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="38" t="s">
+      <c r="P23" s="34"/>
+      <c r="Q23" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H24" s="11"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="P24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="38"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -1440,6 +1440,23 @@
     <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="Q16:Q17"/>
@@ -1456,23 +1473,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.14305555555555599" right="0.13055555555555601" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1514,30 +1514,30 @@
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1546,54 +1546,54 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="40" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="44"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="21" t="s">
         <v>35</v>
       </c>
@@ -1606,8 +1606,8 @@
       <c r="L4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
@@ -2250,54 +2250,54 @@
       <c r="N40" s="16"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="45" t="s">
+      <c r="J41" s="50"/>
+      <c r="K41" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="L41" s="45"/>
-      <c r="M41" s="40" t="s">
+      <c r="L41" s="51"/>
+      <c r="M41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="40" t="s">
+      <c r="N41" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="44"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="21" t="s">
         <v>35</v>
       </c>
@@ -2310,8 +2310,8 @@
       <c r="L42" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -2652,114 +2652,114 @@
       <c r="N61" s="16"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="32"/>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
       <c r="N62" s="16"/>
     </row>
     <row r="63" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="48" t="s">
+      <c r="H63" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
       <c r="N63" s="16"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="48" t="s">
+      <c r="H64" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
       <c r="N64" s="16"/>
     </row>
     <row r="65" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
       <c r="N65" s="16"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="48" t="s">
+      <c r="H66" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
       <c r="N66" s="16"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
       <c r="G67" s="16"/>
       <c r="H67" s="11" t="s">
         <v>45</v>
@@ -2767,8 +2767,8 @@
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
       <c r="N67" s="16"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -2779,14 +2779,14 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="48" t="s">
+      <c r="H68" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
       <c r="N68" s="16"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2808,41 +2808,6 @@
     <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="H62:M62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M41:M42"/>
     <mergeCell ref="N41:N42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
@@ -2858,6 +2823,41 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="L67:M67"/>
   </mergeCells>
   <pageMargins left="0.14305555555555599" right="0.13055555555555601" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2881,8 +2881,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="4.109375" style="1"/>
-    <col min="7" max="7" width="32.33203125"/>
-    <col min="8" max="8" width="14.21875"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="5.21875"/>
     <col min="10" max="10" width="5.109375"/>
     <col min="11" max="12" width="4.33203125"/>
@@ -2895,9 +2895,9 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2907,12 +2907,12 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
@@ -2921,54 +2921,54 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="40" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="44"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="21" t="s">
         <v>35</v>
       </c>
@@ -2981,8 +2981,8 @@
       <c r="L4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
@@ -3626,54 +3626,54 @@
       <c r="N40" s="16"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="45" t="s">
+      <c r="J41" s="50"/>
+      <c r="K41" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="L41" s="45"/>
-      <c r="M41" s="40" t="s">
+      <c r="L41" s="51"/>
+      <c r="M41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="40" t="s">
+      <c r="N41" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="44"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="21" t="s">
         <v>35</v>
       </c>
@@ -3686,8 +3686,8 @@
       <c r="L42" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -4028,114 +4028,114 @@
       <c r="N61" s="16"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="32"/>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
       <c r="N62" s="16"/>
     </row>
     <row r="63" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="48" t="s">
+      <c r="H63" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
       <c r="N63" s="16"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="48" t="s">
+      <c r="H64" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
       <c r="N64" s="16"/>
     </row>
     <row r="65" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
       <c r="N65" s="16"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="48" t="s">
+      <c r="H66" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
       <c r="N66" s="16"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
       <c r="G67" s="16"/>
       <c r="H67" s="11" t="s">
         <v>45</v>
@@ -4143,8 +4143,8 @@
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
       <c r="N67" s="16"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -4155,14 +4155,14 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="48" t="s">
+      <c r="H68" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
       <c r="N68" s="16"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4184,29 +4184,16 @@
     <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="H62:M62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:M4"/>
@@ -4223,19 +4210,32 @@
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:M42"/>
     <mergeCell ref="N41:N42"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="L67:M67"/>
   </mergeCells>
   <pageMargins left="0.14305555555555599" right="0.13055555555555601" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;14FORMATO DE REENTREGAS 2016
 &amp;12"Uniendo esfuerzos, construimos el futuro"</oddHeader>
